--- a/test/singapore/SGD_Worksheet.xlsx
+++ b/test/singapore/SGD_Worksheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://broadridge-my.sharepoint.com/personal/john_nazareth_broadridge_com/Documents/personal/projects/gp/groupInXLS/test/singapore/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazarethj\OneDrive - Broadridge Financial Solutions, Inc\personal\projects\gp\groupInXLS\test\singapore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{88BDC939-B0B6-4811-9408-046EFF5D335A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDD060F4-DC00-4A4E-AEE4-51167DACFD4A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC19ED89-97F1-4BDE-A1DF-9FD560E03C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1668" windowWidth="12108" windowHeight="10512" xr2:uid="{6C7E42F7-B92E-4F0B-AB5A-6A691B81FC41}"/>
+    <workbookView xWindow="732" yWindow="636" windowWidth="12300" windowHeight="10500" xr2:uid="{6C7E42F7-B92E-4F0B-AB5A-6A691B81FC41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>sgd</t>
   </si>
@@ -72,6 +72,81 @@
   </si>
   <si>
     <t>[$EUR] #,##0.00_);[Red]([$EUR] #,##0.00)</t>
+  </si>
+  <si>
+    <t>singapore.json</t>
+  </si>
+  <si>
+    <t>london.json</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>lookup[fr][to]</t>
+  </si>
+  <si>
+    <t>lookup[usd][usd]</t>
+  </si>
+  <si>
+    <t>lookup[inr][usd]</t>
+  </si>
+  <si>
+    <t>lookup[inr][sgd]</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>lookup[inr][gbp]</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>66|B</t>
+  </si>
+  <si>
+    <t>67|C</t>
+  </si>
+  <si>
+    <t>usd|usd|1.0</t>
+  </si>
+  <si>
+    <t>gbp|usd|1.33</t>
+  </si>
+  <si>
+    <t>usd|gbp|0.751879699</t>
+  </si>
+  <si>
+    <t>gbp|gbp|1.0</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -110,12 +185,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,12 +212,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -452,155 +544,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0863E1D1-9241-4538-B55A-EABEB8706DD1}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="7" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
         <v>70.926284999999993</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E8" s="2">
         <v>1.3721760000000001</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F8" s="2">
         <f>0.771254</f>
         <v>0.771254</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G8" s="2">
         <v>0.86213600000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <f>1/C7</f>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>1/D8</f>
         <v>1.4099145330958757E-2</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <f>1/C9</f>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>1/D10</f>
         <v>1.9331142470520007E-2</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F9" s="3">
         <f>1/91.962336</f>
         <v>1.0874016945372071E-2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G9" s="3">
         <f>1/82.268106</f>
         <v>1.2155378902244328E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="B9">
-        <f>1/D7</f>
+      <c r="C10">
+        <f>1/E8</f>
         <v>0.72876948729609026</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D10" s="2">
         <v>51.73</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
         <f>0.562066</f>
         <v>0.56206599999999995</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G10" s="3">
         <f>1/1.591601</f>
         <v>0.62829817272042421</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>70.926284999999993</v>
+      </c>
+      <c r="E17">
+        <v>1.3721760000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.771254</v>
+      </c>
+      <c r="G17">
+        <v>0.86213600000000001</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>3</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1.4099145330958757E-2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1.9331142470520007E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.0874016945372071E-2</v>
+      </c>
+      <c r="G18">
+        <v>1.2155378902244328E-2</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>0.72876948729609026</v>
+      </c>
+      <c r="D19">
+        <v>51.73</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.56206599999999995</v>
+      </c>
+      <c r="G19">
+        <v>0.62829817272042421</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.75187969899999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>1.33</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>2</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.75187969899999996</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>3</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>1.33</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" xr:uid="{38D605E3-404F-4430-AC70-DCF75E6B1376}"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{38D605E3-404F-4430-AC70-DCF75E6B1376}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/test/singapore/SGD_Worksheet.xlsx
+++ b/test/singapore/SGD_Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazarethj\OneDrive - Broadridge Financial Solutions, Inc\personal\projects\gp\groupInXLS\test\singapore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://broadridge-my.sharepoint.com/personal/john_nazareth_broadridge_com/Documents/personal/projects/gp/groupInXLS/test/singapore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC19ED89-97F1-4BDE-A1DF-9FD560E03C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{CC19ED89-97F1-4BDE-A1DF-9FD560E03C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CB91BD8-338B-4E3D-B545-FE9B9B3D862E}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="636" windowWidth="12300" windowHeight="10500" xr2:uid="{6C7E42F7-B92E-4F0B-AB5A-6A691B81FC41}"/>
+    <workbookView xWindow="6900" yWindow="1044" windowWidth="14772" windowHeight="12360" xr2:uid="{6C7E42F7-B92E-4F0B-AB5A-6A691B81FC41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>sgd</t>
   </si>
@@ -116,9 +116,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>D2</t>
-  </si>
-  <si>
     <t>lookup[inr][gbp]</t>
   </si>
   <si>
@@ -147,6 +144,36 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>usd-&gt;inr</t>
+  </si>
+  <si>
+    <t>usd-&gt;sgd</t>
+  </si>
+  <si>
+    <t>usd|1</t>
+  </si>
+  <si>
+    <t>inr|2</t>
+  </si>
+  <si>
+    <t>sgd|3</t>
+  </si>
+  <si>
+    <t>gbp|4</t>
+  </si>
+  <si>
+    <t>eur|5</t>
+  </si>
+  <si>
+    <t>from (col)|to (row)</t>
+  </si>
+  <si>
+    <t>inr-&gt;sgd</t>
   </si>
 </sst>
 </file>
@@ -185,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +222,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -225,10 +270,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -544,20 +588,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0863E1D1-9241-4538-B55A-EABEB8706DD1}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD27"/>
+      <selection activeCell="A17" sqref="A17:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="3" max="7" width="12.77734375" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -573,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -581,7 +626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -589,16 +634,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -618,7 +663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -639,7 +684,7 @@
         <v>0.86213600000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -663,7 +708,7 @@
         <v>1.2155378902244328E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -686,24 +731,24 @@
         <v>0.62829817272042421</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>21</v>
@@ -721,27 +766,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
@@ -749,16 +794,19 @@
       <c r="J16" t="s">
         <v>16</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>2</v>
       </c>
-      <c r="B17" s="8">
-        <v>1</v>
+      <c r="B17" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -784,24 +832,27 @@
       <c r="J17" t="s">
         <v>17</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>3</v>
       </c>
-      <c r="B18" s="8">
-        <v>2</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="10">
         <v>1.4099145330958757E-2</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="8">
         <v>1.9331142470520007E-2</v>
       </c>
       <c r="F18">
@@ -819,18 +870,21 @@
       <c r="J18" t="s">
         <v>18</v>
       </c>
-      <c r="K18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="8">
-        <v>3</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="9">
         <v>0.72876948729609026</v>
       </c>
       <c r="D19">
@@ -849,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="6" t="s">
         <v>5</v>
       </c>
@@ -866,20 +920,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>6</v>
       </c>
@@ -890,7 +937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>5</v>
       </c>
@@ -901,7 +948,7 @@
         <v>0.75187969899999996</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>7</v>
       </c>
@@ -912,9 +959,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>21</v>
@@ -923,7 +970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -946,11 +993,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>2</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
@@ -966,17 +1013,17 @@
         <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>3</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31">
         <v>2</v>
       </c>
       <c r="C31">
@@ -989,7 +1036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="6" t="s">
         <v>5</v>
       </c>
@@ -999,7 +1046,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>21</v>
@@ -1013,10 +1060,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
         <v>30</v>
-      </c>
-      <c r="D34" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1027,10 +1074,10 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1041,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
